--- a/biology/Botanique/Borowitsky/Borowitsky.xlsx
+++ b/biology/Botanique/Borowitsky/Borowitsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Borowitsky est le nom d'un cultivar de pomme apparu au sud de la Russie vers 1700 et introduit en France en 1834. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Borowitski, Borovitsky, Borowicki, Borowinka, Barowiski, Baroveski, Charlamowsky d'automne, Charlamowsky d'automne, Charlamowskircher Nalleoid, Ernteapfel, Early Joe, Duchesse d'Oldenburg (ou d'Oldenbourg).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Borowitsky est une pomme moyenne à grosse souvent dissymétrique, à fine peau jaune clair et verdâtre, rayée de rouge rosé.
 Sa fine chair tendre est juteuse, peu sucrée, acidulée et parfumée.
@@ -576,12 +592,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre rustique au port érigé et de vigueur moyenne résiste aux grands froids. Très fertile sur porte-greffe nain, il l'est moins en haute tige. Sa culture est recommandée en montagne.
 Il pousse bien dans tous les sols, même dans les sols sableux.
 A floraison précoce, il atteint la pleine floraison 8 jours avant Golden Delicious et est donc pollinisé par Fameuse, Idared, Astrakan rouge, Wagener ou Winter Pearmain.
-Cette variété est une très bonne pollinisatrice[1]
+Cette variété est une très bonne pollinisatrice
 </t>
         </is>
       </c>
